--- a/vendas_ovos.xlsx
+++ b/vendas_ovos.xlsx
@@ -473,14 +473,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ramon</t>
-        </is>
-      </c>
+          <t>18/04/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>OVO FERRERO GRAN ROCHER 365G</t>
@@ -492,13 +488,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>59.1</v>
       </c>
       <c r="G2" t="n">
-        <v>70</v>
+        <v>59.1</v>
       </c>
     </row>
   </sheetData>
